--- a/biology/Botanique/Nitophylloideae/Nitophylloideae.xlsx
+++ b/biology/Botanique/Nitophylloideae/Nitophylloideae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Nitophylloideae sont une sous-famille d’algues rouges de la famille des Delesseriaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres et tribus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (5 février 2019)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (5 février 2019) :
 genre Abroteia Harvey ex J.Agardh
 genre Acrosorium Zanardini ex Kützing
 genre Agarum Link
@@ -584,14 +598,14 @@
 tribu des Valeriemayaeae M.J.Wynne &amp; A.J.K.Millar
 genre Womersleya Papenfuss
 genre Yendonia Kylin
-Selon World Register of Marine Species                               (5 février 2019)[2] :
+Selon World Register of Marine Species                               (5 février 2019) :
 tribu des Cryptopleureae M.J. Wynne
 tribu des Martensieae M.J. Wynne
 tribu des Myriogrammeae M.S. Hommersand &amp; S. Fredericq, 1997
 tribu des Neuroglosseae J.Agardh, 1898
 tribu des Nitophylleae Kylin
 tribu des Phycodryeae M.J. Wynne
-Selon World Register of Marine Species                               (5 février 2019)[2] :
+Selon World Register of Marine Species                               (5 février 2019) :
 genre Acrosorium Zanardini ex Kützing, 1869
 genre Asterocolax Feldmann &amp; G.Feldmann, 1951
 genre Augophyllum S.-M.Lin, S.Fredericq &amp; M.H.Hommersand, 2004
